--- a/src/test/resources/testdata/AirDoctorTestData_Old.xlsx
+++ b/src/test/resources/testdata/AirDoctorTestData_Old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MridulVashistha\eclipse-workspace\AirDoctorAutomationTest\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8339328C-BD8A-4F2A-8C54-C341F62380ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297B317-F2CA-4CEE-9E5D-E713FD050E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="13" xr2:uid="{07382CD4-B33B-5D40-990D-75EE8A0B033C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{07382CD4-B33B-5D40-990D-75EE8A0B033C}"/>
   </bookViews>
   <sheets>
     <sheet name="memorialsale1" sheetId="31" r:id="rId1"/>
@@ -8519,7 +8519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D79A10-B113-432F-8613-9B3E3545DA7A}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="S1" sqref="S1:W1"/>
     </sheetView>
   </sheetViews>
@@ -10869,7 +10869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD3757-4632-4B0D-9BFC-C95783757A63}">
   <dimension ref="A2:A2098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2094" workbookViewId="0">
+    <sheetView topLeftCell="A2094" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -21651,7 +21651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9401ED4C-4356-4D5C-878B-A5952C42B085}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView topLeftCell="AI23" workbookViewId="0">
+    <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23:D28"/>
     </sheetView>
   </sheetViews>
@@ -23223,7 +23223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184EF15B-23A6-4D51-A9CE-0B008ADCB85A}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -24312,7 +24312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1554A50E-3337-4487-BB88-2CE700995077}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -24608,7 +24608,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -24947,7 +24947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5DEC42-44C6-487A-B626-B34E8C5204DC}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView topLeftCell="F12" workbookViewId="0">
+    <sheetView topLeftCell="F11" workbookViewId="0">
       <selection sqref="A1:U15"/>
     </sheetView>
   </sheetViews>
@@ -25791,8 +25791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC3B832-4A96-47D5-B800-7898857EB6A1}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -26638,8 +26638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C27F26-8CA1-4C31-AB9C-CA0C5296EFE0}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:V15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
